--- a/artfynd/A 15823-2022 artfynd.xlsx
+++ b/artfynd/A 15823-2022 artfynd.xlsx
@@ -814,7 +814,7 @@
         <v>131027184</v>
       </c>
       <c r="B3" t="n">
-        <v>96332</v>
+        <v>96336</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
